--- a/fobi_new_classes.xlsx
+++ b/fobi_new_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">parent</t>
   </si>
@@ -24,6 +24,153 @@
   </si>
   <si>
     <t xml:space="preserve">N-acyl-alpha amino acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acyl-L-alpha-amino acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha amino acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutamic acid and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peptides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipeptides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha amino acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-alpha-amino acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatty acids and conjugates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium-chain fatty acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucuronides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-glucuronides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carboxylic acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carboxylic acid derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carboxylic acid amides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetamides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyl-2-arylethylamines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyridines and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyridinecarboxylic acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyridinecarboxylic acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prenol lipids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinone and hydroquinone lipids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin E compounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocopherols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furanones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butenolides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbohydrates and carbohydrate conjugates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar alcohols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keto acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short-chain keto acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic phosphonic acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic phosphonic acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroxy acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha hydroxy acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutamine and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steroids and steroid derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfated steroids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organoheterocyclic compounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pteridines and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alloxazines and isoalloxazines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroxy fatty acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzoic acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzoic acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium-chain keto acids and derivatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohols and polyols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary alcohols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrrolidinylpyridines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carboxylic acids</t>
   </si>
 </sst>
 </file>
@@ -371,6 +518,270 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
